--- a/biology/Botanique/Prunus_subg._Cerasus/Prunus_subg._Cerasus.xlsx
+++ b/biology/Botanique/Prunus_subg._Cerasus/Prunus_subg._Cerasus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus subg. Cerasus est un sous-genre de plantes à fleurs du genre Prunus dans la famille des Rosaceae. Ce sont les vrais cerisiers.
 Le sous-genre est originaire des régions tempérées de l'hémisphère Nord, avec deux espèce en Amérique du Nord (P. emarginata et P. pensylvanica), quatre en Europe (P. avium, P. cerasus, P. fruticosa et P. mahaleb), deux en Afrique du Nord (P. avium and P. mahaleb), et les autres en Asie.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus apetala (Siebold &amp; Zucc.) Franch. &amp; Sav.
 Prunus avium (L.) L.
